--- a/natmiOut/OldD7/LR-pairs_lrc2p/Chad-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Chad-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Chad</t>
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.420016791294834</v>
+        <v>0.4370383333333334</v>
       </c>
       <c r="H2">
-        <v>0.420016791294834</v>
+        <v>1.311115</v>
       </c>
       <c r="I2">
-        <v>0.07972044919015303</v>
+        <v>0.04569839301109439</v>
       </c>
       <c r="J2">
-        <v>0.07972044919015303</v>
+        <v>0.04569839301109439</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>59.50367774804578</v>
+        <v>67.09806585366444</v>
       </c>
       <c r="R2">
-        <v>59.50367774804578</v>
+        <v>603.88259268298</v>
       </c>
       <c r="S2">
-        <v>0.02498316821775984</v>
+        <v>0.01449647607735998</v>
       </c>
       <c r="T2">
-        <v>0.02498316821775984</v>
+        <v>0.01449647607735998</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.420016791294834</v>
+        <v>0.4370383333333334</v>
       </c>
       <c r="H3">
-        <v>0.420016791294834</v>
+        <v>1.311115</v>
       </c>
       <c r="I3">
-        <v>0.07972044919015303</v>
+        <v>0.04569839301109439</v>
       </c>
       <c r="J3">
-        <v>0.07972044919015303</v>
+        <v>0.04569839301109439</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>70.82243825477543</v>
+        <v>73.77194072060223</v>
       </c>
       <c r="R3">
-        <v>70.82243825477543</v>
+        <v>663.9474664854201</v>
       </c>
       <c r="S3">
-        <v>0.02973545426894347</v>
+        <v>0.01593836067002255</v>
       </c>
       <c r="T3">
-        <v>0.02973545426894347</v>
+        <v>0.01593836067002255</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.420016791294834</v>
+        <v>0.4370383333333334</v>
       </c>
       <c r="H4">
-        <v>0.420016791294834</v>
+        <v>1.311115</v>
       </c>
       <c r="I4">
-        <v>0.07972044919015303</v>
+        <v>0.04569839301109439</v>
       </c>
       <c r="J4">
-        <v>0.07972044919015303</v>
+        <v>0.04569839301109439</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>25.87034369058097</v>
+        <v>29.75808142572778</v>
       </c>
       <c r="R4">
-        <v>25.87034369058097</v>
+        <v>267.82273283155</v>
       </c>
       <c r="S4">
-        <v>0.01086190253667594</v>
+        <v>0.006429206416128514</v>
       </c>
       <c r="T4">
-        <v>0.01086190253667594</v>
+        <v>0.006429206416128516</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.420016791294834</v>
+        <v>0.4370383333333334</v>
       </c>
       <c r="H5">
-        <v>0.420016791294834</v>
+        <v>1.311115</v>
       </c>
       <c r="I5">
-        <v>0.07972044919015303</v>
+        <v>0.04569839301109439</v>
       </c>
       <c r="J5">
-        <v>0.07972044919015303</v>
+        <v>0.04569839301109439</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>33.67777391833755</v>
+        <v>40.89047467013167</v>
       </c>
       <c r="R5">
-        <v>33.67777391833755</v>
+        <v>368.014272031185</v>
       </c>
       <c r="S5">
-        <v>0.01413992416677378</v>
+        <v>0.008834349847583347</v>
       </c>
       <c r="T5">
-        <v>0.01413992416677378</v>
+        <v>0.008834349847583347</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.07546094531814</v>
+        <v>6.326553</v>
       </c>
       <c r="H6">
-        <v>4.07546094531814</v>
+        <v>18.979659</v>
       </c>
       <c r="I6">
-        <v>0.7735347346854604</v>
+        <v>0.6615284823974669</v>
       </c>
       <c r="J6">
-        <v>0.7735347346854604</v>
+        <v>0.6615284823974669</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>577.3695713863221</v>
+        <v>971.3094651972518</v>
       </c>
       <c r="R6">
-        <v>577.3695713863221</v>
+        <v>8741.785186775267</v>
       </c>
       <c r="S6">
-        <v>0.2424139426614536</v>
+        <v>0.2098505261933163</v>
       </c>
       <c r="T6">
-        <v>0.2424139426614536</v>
+        <v>0.2098505261933164</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.07546094531814</v>
+        <v>6.326553</v>
       </c>
       <c r="H7">
-        <v>4.07546094531814</v>
+        <v>18.979659</v>
       </c>
       <c r="I7">
-        <v>0.7735347346854604</v>
+        <v>0.6615284823974669</v>
       </c>
       <c r="J7">
-        <v>0.7735347346854604</v>
+        <v>0.6615284823974669</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>687.196529142888</v>
+        <v>1067.920265304908</v>
       </c>
       <c r="R7">
-        <v>687.196529142888</v>
+        <v>9611.282387744172</v>
       </c>
       <c r="S7">
-        <v>0.2885258043869618</v>
+        <v>0.2307232016535846</v>
       </c>
       <c r="T7">
-        <v>0.2885258043869618</v>
+        <v>0.2307232016535846</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.07546094531814</v>
+        <v>6.326553</v>
       </c>
       <c r="H8">
-        <v>4.07546094531814</v>
+        <v>18.979659</v>
       </c>
       <c r="I8">
-        <v>0.7735347346854604</v>
+        <v>0.6615284823974669</v>
       </c>
       <c r="J8">
-        <v>0.7735347346854604</v>
+        <v>0.6615284823974669</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>251.0222865802295</v>
+        <v>430.77703935547</v>
       </c>
       <c r="R8">
-        <v>251.0222865802295</v>
+        <v>3876.99335419923</v>
       </c>
       <c r="S8">
-        <v>0.1053940235189338</v>
+        <v>0.09306898740288327</v>
       </c>
       <c r="T8">
-        <v>0.1053940235189338</v>
+        <v>0.09306898740288329</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.07546094531814</v>
+        <v>6.326553</v>
       </c>
       <c r="H9">
-        <v>4.07546094531814</v>
+        <v>18.979659</v>
       </c>
       <c r="I9">
-        <v>0.7735347346854604</v>
+        <v>0.6615284823974669</v>
       </c>
       <c r="J9">
-        <v>0.7735347346854604</v>
+        <v>0.6615284823974669</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N9">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q9">
-        <v>326.7784887987803</v>
+        <v>591.929209556169</v>
       </c>
       <c r="R9">
-        <v>326.7784887987803</v>
+        <v>5327.362886005521</v>
       </c>
       <c r="S9">
-        <v>0.1372009641181111</v>
+        <v>0.1278857671476826</v>
       </c>
       <c r="T9">
-        <v>0.1372009641181111</v>
+        <v>0.1278857671476826</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.773142743597692</v>
+        <v>0.8278226666666667</v>
       </c>
       <c r="H10">
-        <v>0.773142743597692</v>
+        <v>2.483468</v>
       </c>
       <c r="I10">
-        <v>0.1467448161243867</v>
+        <v>0.08656029157966813</v>
       </c>
       <c r="J10">
-        <v>0.1467448161243867</v>
+        <v>0.08656029157966813</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N10">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O10">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P10">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q10">
-        <v>109.5309464330049</v>
+        <v>127.0948005395929</v>
       </c>
       <c r="R10">
-        <v>109.5309464330049</v>
+        <v>1143.853204856336</v>
       </c>
       <c r="S10">
-        <v>0.04598757863964253</v>
+        <v>0.02745871601719836</v>
       </c>
       <c r="T10">
-        <v>0.04598757863964253</v>
+        <v>0.02745871601719837</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.773142743597692</v>
+        <v>0.8278226666666667</v>
       </c>
       <c r="H11">
-        <v>0.773142743597692</v>
+        <v>2.483468</v>
       </c>
       <c r="I11">
-        <v>0.1467448161243867</v>
+        <v>0.08656029157966813</v>
       </c>
       <c r="J11">
-        <v>0.1467448161243867</v>
+        <v>0.08656029157966813</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N11">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q11">
-        <v>130.3658695448176</v>
+        <v>139.7362199940605</v>
       </c>
       <c r="R11">
-        <v>130.3658695448176</v>
+        <v>1257.625979946544</v>
       </c>
       <c r="S11">
-        <v>0.0547353133781664</v>
+        <v>0.03018988318832412</v>
       </c>
       <c r="T11">
-        <v>0.0547353133781664</v>
+        <v>0.03018988318832412</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.773142743597692</v>
+        <v>0.8278226666666667</v>
       </c>
       <c r="H12">
-        <v>0.773142743597692</v>
+        <v>2.483468</v>
       </c>
       <c r="I12">
-        <v>0.1467448161243867</v>
+        <v>0.08656029157966813</v>
       </c>
       <c r="J12">
-        <v>0.1467448161243867</v>
+        <v>0.08656029157966813</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N12">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q12">
-        <v>47.6206402060503</v>
+        <v>56.36671303599556</v>
       </c>
       <c r="R12">
-        <v>47.6206402060503</v>
+        <v>507.3004173239601</v>
       </c>
       <c r="S12">
-        <v>0.01999396524602624</v>
+        <v>0.01217797706520774</v>
       </c>
       <c r="T12">
-        <v>0.01999396524602624</v>
+        <v>0.01217797706520775</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.8278226666666667</v>
+      </c>
+      <c r="H13">
+        <v>2.483468</v>
+      </c>
+      <c r="I13">
+        <v>0.08656029157966813</v>
+      </c>
+      <c r="J13">
+        <v>0.08656029157966813</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>93.562673</v>
+      </c>
+      <c r="N13">
+        <v>280.688019</v>
+      </c>
+      <c r="O13">
+        <v>0.1933186106880956</v>
+      </c>
+      <c r="P13">
+        <v>0.1933186106880956</v>
+      </c>
+      <c r="Q13">
+        <v>77.45330146332134</v>
+      </c>
+      <c r="R13">
+        <v>697.0797131698921</v>
+      </c>
+      <c r="S13">
+        <v>0.01673371530893791</v>
+      </c>
+      <c r="T13">
+        <v>0.01673371530893791</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.773142743597692</v>
-      </c>
-      <c r="H13">
-        <v>0.773142743597692</v>
-      </c>
-      <c r="I13">
-        <v>0.1467448161243867</v>
-      </c>
-      <c r="J13">
-        <v>0.1467448161243867</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>80.1819703791251</v>
-      </c>
-      <c r="N13">
-        <v>80.1819703791251</v>
-      </c>
-      <c r="O13">
-        <v>0.1773688471454364</v>
-      </c>
-      <c r="P13">
-        <v>0.1773688471454364</v>
-      </c>
-      <c r="Q13">
-        <v>61.99210856598565</v>
-      </c>
-      <c r="R13">
-        <v>61.99210856598565</v>
-      </c>
-      <c r="S13">
-        <v>0.02602795886055152</v>
-      </c>
-      <c r="T13">
-        <v>0.02602795886055152</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.972124333333333</v>
+      </c>
+      <c r="H14">
+        <v>5.916373</v>
+      </c>
+      <c r="I14">
+        <v>0.2062128330117706</v>
+      </c>
+      <c r="J14">
+        <v>0.2062128330117706</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>153.5290173333333</v>
+      </c>
+      <c r="N14">
+        <v>460.587052</v>
+      </c>
+      <c r="O14">
+        <v>0.3172206968818489</v>
+      </c>
+      <c r="P14">
+        <v>0.317220696881849</v>
+      </c>
+      <c r="Q14">
+        <v>302.7783109558217</v>
+      </c>
+      <c r="R14">
+        <v>2725.004798602396</v>
+      </c>
+      <c r="S14">
+        <v>0.0654149785939742</v>
+      </c>
+      <c r="T14">
+        <v>0.0654149785939742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.972124333333333</v>
+      </c>
+      <c r="H15">
+        <v>5.916373</v>
+      </c>
+      <c r="I15">
+        <v>0.2062128330117706</v>
+      </c>
+      <c r="J15">
+        <v>0.2062128330117706</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>168.7997026666667</v>
+      </c>
+      <c r="N15">
+        <v>506.3991080000001</v>
+      </c>
+      <c r="O15">
+        <v>0.3487728915577651</v>
+      </c>
+      <c r="P15">
+        <v>0.3487728915577651</v>
+      </c>
+      <c r="Q15">
+        <v>332.8940010883649</v>
+      </c>
+      <c r="R15">
+        <v>2996.046009795285</v>
+      </c>
+      <c r="S15">
+        <v>0.07192144604583378</v>
+      </c>
+      <c r="T15">
+        <v>0.07192144604583378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.972124333333333</v>
+      </c>
+      <c r="H16">
+        <v>5.916373</v>
+      </c>
+      <c r="I16">
+        <v>0.2062128330117706</v>
+      </c>
+      <c r="J16">
+        <v>0.2062128330117706</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>68.09032333333333</v>
+      </c>
+      <c r="N16">
+        <v>204.27097</v>
+      </c>
+      <c r="O16">
+        <v>0.1406878008722904</v>
+      </c>
+      <c r="P16">
+        <v>0.1406878008722904</v>
+      </c>
+      <c r="Q16">
+        <v>134.2825835102011</v>
+      </c>
+      <c r="R16">
+        <v>1208.54325159181</v>
+      </c>
+      <c r="S16">
+        <v>0.02901162998807084</v>
+      </c>
+      <c r="T16">
+        <v>0.02901162998807085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.972124333333333</v>
+      </c>
+      <c r="H17">
+        <v>5.916373</v>
+      </c>
+      <c r="I17">
+        <v>0.2062128330117706</v>
+      </c>
+      <c r="J17">
+        <v>0.2062128330117706</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>93.562673</v>
+      </c>
+      <c r="N17">
+        <v>280.688019</v>
+      </c>
+      <c r="O17">
+        <v>0.1933186106880956</v>
+      </c>
+      <c r="P17">
+        <v>0.1933186106880956</v>
+      </c>
+      <c r="Q17">
+        <v>184.5172241150097</v>
+      </c>
+      <c r="R17">
+        <v>1660.655017035087</v>
+      </c>
+      <c r="S17">
+        <v>0.03986477838389175</v>
+      </c>
+      <c r="T17">
+        <v>0.03986477838389175</v>
       </c>
     </row>
   </sheetData>
